--- a/biology/Botanique/Cucurbitales/Cucurbitales.xlsx
+++ b/biology/Botanique/Cucurbitales/Cucurbitales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ordre des Cucurbitales est un ordre de plantes dicotylédones réintroduit par la classification phylogénétique des Angiospermes. Les Cucurbitales appartiennent au groupe des Fabidées (Eurosids I), lui-même rattaché aux Rosidées (Rosids) puis au noyau des Dicotylédones vraies.
 </t>
@@ -511,10 +523,12 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En classification phylogénétique APG III (2009)[1] cet ordre comportait 7 familles. En classification phylogénétique APG IV (2016)[2] il faut y ajouter les Apodanthaceae.
-Selon BioLib                    (2 octobre 2016)[3] et  ITIS      (2 octobre 2016)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En classification phylogénétique APG III (2009) cet ordre comportait 7 familles. En classification phylogénétique APG IV (2016) il faut y ajouter les Apodanthaceae.
+Selon BioLib                    (2 octobre 2016) et  ITIS      (2 octobre 2016) :
 famille Anisophylleaceae (Schimp.) Ridl.
 famille Apodanthaceae Takhtajan
 famille Begoniaceae C.A. Agardh. (famille des bégonias)
